--- a/example_data/Summary/before/Averages by Sample/Avg AUC_before_.xlsx
+++ b/example_data/Summary/before/Averages by Sample/Avg AUC_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,144 +438,286 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3997924996527096</v>
+        <v>0.7733567194258154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4736691976793892</v>
+        <v>0.762399335897995</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1977380021365628</v>
+        <v>0.2478873367900787</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3939178691482793</v>
+        <v>0.2293383350963161</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.3324410004806607</v>
+        <v>0.7733567194258154</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4470854215023525</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0.3324410004806607</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.4470854215023525</v>
+        <v>0.762399335897995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9168954542391463</v>
+        <v>1.071365321807163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9380773418817029</v>
+        <v>1.155585076970606</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1655993753573704</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1597811060762696</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9168954542391463</v>
+        <v>1.071365321807163</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9380773418817029</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9168954542391463</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9380773418817029</v>
+        <v>1.155585076970606</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.419327531573197</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.230263636731361</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6904524005405691</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7697387023307425</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1.419327531573197</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.230263636731361</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3220664595679581</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4285180277600055</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2478873367900787</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2293383350963161</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1430182839325291</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1503906612189179</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3220664595679581</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4285180277600055</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5618784637778849</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.435079995733774</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1505453144074762</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1535208095047018</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2756155367686839</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3409274478006753</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5618784637778849</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.435079995733774</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.972210428755462</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8821264085240119</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2756155367686839</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3409274478006753</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7415651873754467</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7547607485082029</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,144 +742,286 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.46933643009845</v>
+        <v>64.98886346257461</v>
       </c>
       <c r="C2" t="n">
-        <v>81.12162104255998</v>
+        <v>64.06806212457721</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>33.86504200320127</v>
+        <v>47.38520146914441</v>
       </c>
       <c r="F2" t="n">
-        <v>67.46323438276195</v>
+        <v>43.83944478107782</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>56.93457162113272</v>
+        <v>64.98886346257461</v>
       </c>
       <c r="I2" t="n">
-        <v>76.56882548929397</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>56.93457162113272</v>
-      </c>
-      <c r="L2" t="n">
-        <v>76.56882548929397</v>
+        <v>64.06806212457721</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.7384755517681</v>
+        <v>41.03102753929549</v>
       </c>
       <c r="C3" t="n">
-        <v>47.81821603160662</v>
+        <v>44.25646616711575</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>46.57601113708737</v>
+      </c>
+      <c r="F3" t="n">
+        <v>44.93958120339764</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>46.7384755517681</v>
+        <v>41.03102753929549</v>
       </c>
       <c r="I3" t="n">
-        <v>47.81821603160662</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>46.7384755517681</v>
-      </c>
-      <c r="L3" t="n">
-        <v>47.81821603160662</v>
+        <v>44.25646616711575</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>79.43871687447464</v>
+      </c>
+      <c r="C4" t="n">
+        <v>124.8262135783151</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>48.72808492820923</v>
+      </c>
+      <c r="F4" t="n">
+        <v>54.32364755388831</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>79.43871687447464</v>
+      </c>
+      <c r="I4" t="n">
+        <v>124.8262135783151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>44.06936704743711</v>
+      </c>
+      <c r="C5" t="n">
+        <v>58.63547007388632</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>47.38520146914441</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43.83944478107782</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40.22491733965424</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42.29845128781459</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>44.06936704743711</v>
+      </c>
+      <c r="I6" t="n">
+        <v>58.63547007388632</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13.5743333732698</v>
+      </c>
+      <c r="C7" t="n">
+        <v>34.66987175201923</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>42.34194860546528</v>
+      </c>
+      <c r="I7" t="n">
+        <v>43.17882792634228</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>44.61103952835131</v>
+      </c>
+      <c r="C8" t="n">
+        <v>55.1824038239921</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>13.5743333732698</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34.66987175201923</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>68.61291568165575</v>
+      </c>
+      <c r="C9" t="n">
+        <v>62.2553133544339</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>44.61103952835131</v>
+      </c>
+      <c r="I9" t="n">
+        <v>55.1824038239921</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>52.33532594273452</v>
+      </c>
+      <c r="I10" t="n">
+        <v>53.26659133199075</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +1035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,147 +1046,307 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.53723978532312</v>
+        <v>61.24951096179993</v>
       </c>
       <c r="C2" t="n">
-        <v>41.38266920753347</v>
+        <v>54.69731612731599</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>260.8550840763515</v>
+        <v>33.03219795179394</v>
       </c>
       <c r="F2" t="n">
-        <v>45.97194218111096</v>
+        <v>55.94455726027148</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>113.3098545489993</v>
+        <v>61.24951096179993</v>
       </c>
       <c r="I2" t="n">
-        <v>12.26446541131867</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>113.3098545489993</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.26446541131867</v>
+        <v>54.69731612731599</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.41430267451181</v>
+        <v>13.29097292320905</v>
       </c>
       <c r="C3" t="n">
-        <v>43.71037593115477</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>34.53366782915219</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1.587113079173612</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.88218026431605</v>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>52.41430267451181</v>
+        <v>13.29097292320905</v>
       </c>
       <c r="I3" t="n">
-        <v>43.71037593115477</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>52.41430267451181</v>
-      </c>
-      <c r="L3" t="n">
-        <v>43.71037593115477</v>
+        <v>34.53366782915219</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>106.4708480084898</v>
+      </c>
+      <c r="C4" t="n">
+        <v>143.0745952962371</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>32.2007841727045</v>
+      </c>
+      <c r="F4" t="n">
+        <v>74.20837706951863</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>106.4708480084898</v>
+      </c>
+      <c r="I4" t="n">
+        <v>143.0745952962371</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>30.35128856875794</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65.71696048868765</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>33.03219795179394</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55.94455726027148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50.68811340532528</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.62106004088148</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>30.35128856875794</v>
+      </c>
+      <c r="I6" t="n">
+        <v>65.71696048868765</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>241.9358359062912</v>
+      </c>
+      <c r="C7" t="n">
+        <v>85.96551007446079</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>33.26303791049232</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26.37476678202634</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>57.6705385596928</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.97474819875776</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>241.9358359062912</v>
+      </c>
+      <c r="I8" t="n">
+        <v>85.96551007446079</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>181.4822650517535</v>
+      </c>
+      <c r="C9" t="n">
+        <v>133.7538080175759</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>57.6705385596928</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.97474819875776</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>59.28144114247247</v>
+      </c>
+      <c r="I10" t="n">
+        <v>66.27273405933465</v>
       </c>
     </row>
   </sheetData>
